--- a/PE loop sample 5/Sample D/Unnormalized_Pmax_Sample_5D_5Hz.xlsx
+++ b/PE loop sample 5/Sample D/Unnormalized_Pmax_Sample_5D_5Hz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,85 +444,130 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A11_bipolar_10V_5Hz.txt</t>
+          <t>A1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.525103</v>
+        <v>92.10321500000001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A13_bipolar_10V_5Hz.txt</t>
+          <t>A4_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.731346</v>
+        <v>91.558201</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A15_bipolar_10V_5Hz.txt</t>
+          <t>A6_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.500917</v>
+        <v>99.646603</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A1_bipolar_10V_5Hz.txt</t>
+          <t>A7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.10321500000001</v>
+        <v>105.940497</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A4_bipolar_10V_5Hz.txt</t>
+          <t>A9_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.558201</v>
+        <v>102.478654</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A6_bipolar_10V_5Hz.txt</t>
+          <t>A11_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.646603</v>
+        <v>87.525103</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A7_bipolar_10V_5Hz.txt</t>
+          <t>A13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.940497</v>
+        <v>124.731346</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A9_bipolar_10V_5Hz.txt</t>
+          <t>A15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.478654</v>
+        <v>62.500917</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A15</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -534,55 +579,85 @@
       <c r="B10" t="n">
         <v>168.134592</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C12_bipolar_10V_5Hz.txt</t>
+          <t>C1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.03216399999999</v>
+        <v>123.498001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C13_bipolar_10V_5Hz.txt</t>
+          <t>C3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.567508</v>
+        <v>121.584398</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C1_bipolar_10V_5Hz.txt</t>
+          <t>C7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.498001</v>
+        <v>104.172232</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C3_bipolar_10V_5Hz.txt</t>
+          <t>C12_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.584398</v>
+        <v>90.03216399999999</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C7_bipolar_10V_5Hz.txt</t>
+          <t>C13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.172232</v>
+        <v>77.567508</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -594,185 +669,280 @@
       <c r="B16" t="n">
         <v>72.58568200000001</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E11_bipolar_10V_5Hz.txt</t>
+          <t>E5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.86383600000001</v>
+        <v>101.136306</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E5_bipolar_10V_5Hz.txt</t>
+          <t>E9_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.136306</v>
+        <v>81.211023</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E9_bipolar_10V_5Hz.txt</t>
+          <t>E11_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.211023</v>
+        <v>75.86383600000001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F14_bipolar_10V_5Hz.txt</t>
+          <t>F2_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.317205</v>
+        <v>96.227149</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F2_bipolar_10V_5Hz.txt</t>
+          <t>F3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.227149</v>
+        <v>108.326445</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F3_bipolar_10V_5Hz.txt</t>
+          <t>F8_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.326445</v>
+        <v>92.60382</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F8_bipolar_10V_5Hz.txt</t>
+          <t>F14_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.60382</v>
+        <v>77.317205</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>G11_bipolar_10V_5Hz.txt</t>
+          <t>G7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.34263799999999</v>
+        <v>76.59455800000001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>G7_bipolar_10V_5Hz.txt</t>
+          <t>G11_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.59455800000001</v>
+        <v>78.34263799999999</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>H10_bipolar_10V_5Hz.txt</t>
+          <t>H1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83.744325</v>
+        <v>93.128647</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H1_bipolar_10V_5Hz.txt</t>
+          <t>H4_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>93.128647</v>
+        <v>97.17183900000001</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H4_bipolar_10V_5Hz.txt</t>
+          <t>H5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.17183900000001</v>
+        <v>85.69628</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>H5_bipolar_10V_5Hz.txt</t>
+          <t>H10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.69628</v>
+        <v>83.744325</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I11_bipolar_10V_5Hz.txt</t>
+          <t>I4_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.83677900000001</v>
+        <v>91.927599</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I15_bipolar_10V_5Hz.txt</t>
+          <t>I6_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.494861</v>
+        <v>94.376122</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I4_bipolar_10V_5Hz.txt</t>
+          <t>I7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.927599</v>
+        <v>78.625237</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I6_bipolar_10V_5Hz.txt</t>
+          <t>I11_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>94.376122</v>
+        <v>81.83677900000001</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I7_bipolar_10V_5Hz.txt</t>
+          <t>I15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.625237</v>
+        <v>62.494861</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -784,45 +954,70 @@
       <c r="B35" t="n">
         <v>69.814188</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>K10_bipolar_10V_5Hz.txt</t>
+          <t>K1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>88.584851</v>
+        <v>110.032135</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>K1_bipolar_10V_5Hz.txt</t>
+          <t>K3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.032135</v>
+        <v>107.539203</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>K3_bipolar_10V_5Hz.txt</t>
+          <t>K7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>107.539203</v>
+        <v>91.68738999999999</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>K7_bipolar_10V_5Hz.txt</t>
+          <t>K10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>91.68738999999999</v>
+        <v>88.584851</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -834,6 +1029,11 @@
       <c r="B40" t="n">
         <v>64.973663</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -843,6 +1043,11 @@
       </c>
       <c r="B41" t="n">
         <v>153.059927</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
       </c>
     </row>
   </sheetData>
